--- a/Model/KalmanTesting/TaskTracking.xlsx
+++ b/Model/KalmanTesting/TaskTracking.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TylerFiles\GitHubRepos\BatteryModel\Model\KalmanTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC0D3B-11F6-46E6-A8D1-973FE80671D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C0A955-206E-4155-BEF1-B54931FE7A42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{DBB2BB76-CD99-4D2C-BFC4-D2EA9F053BD7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{DBB2BB76-CD99-4D2C-BFC4-D2EA9F053BD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
     <sheet name="MSD SVD Comparision" sheetId="2" r:id="rId2"/>
     <sheet name="MSD SVD Compare QState" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="44">
   <si>
     <t>Plant</t>
   </si>
@@ -143,9 +144,6 @@
     <t>R_0</t>
   </si>
   <si>
-    <t>Error Covariance</t>
-  </si>
-  <si>
     <t>Higher State Noise</t>
   </si>
   <si>
@@ -160,16 +158,19 @@
   <si>
     <t>Combined</t>
   </si>
+  <si>
+    <t>Covariance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="170" formatCode="0.000000000"/>
-    <numFmt numFmtId="174" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="175" formatCode="0.000000E+00"/>
-    <numFmt numFmtId="178" formatCode="0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="167" formatCode="0E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -321,19 +322,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,31 +341,16 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -387,10 +364,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -403,6 +404,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,13 +492,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>142877</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
+      <xdr:rowOff>293682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>122232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -508,8 +513,68 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6096002" y="476250"/>
-          <a:ext cx="1133475" cy="914400"/>
+          <a:off x="5310190" y="293682"/>
+          <a:ext cx="1136650" cy="915988"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>423864</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1338264</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Left 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14045F0C-6853-4FB1-9EE6-6433C78696B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="929483" y="2220119"/>
+          <a:ext cx="1125537" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -845,7 +910,7 @@
   <dimension ref="C3:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,11 +924,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
@@ -873,11 +938,11 @@
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
@@ -889,523 +954,543 @@
       </c>
     </row>
     <row r="4" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="J4" s="3" t="s">
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="J4" s="22" t="s">
         <v>15</v>
       </c>
       <c r="L4" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="M4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
+      <c r="C5" s="22"/>
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="J5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="J5" s="22"/>
       <c r="L5" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="M5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
+      <c r="C6" s="22"/>
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="J6" s="3"/>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="J6" s="22"/>
       <c r="L6" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="M6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
+      <c r="C7" s="22"/>
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="3"/>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="22"/>
       <c r="L7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="M7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="21" t="s">
         <v>14</v>
       </c>
       <c r="L8" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="M8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="21"/>
       <c r="L9" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="M9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21"/>
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="21"/>
       <c r="L10" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="M10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="21"/>
       <c r="L11" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="21" t="s">
         <v>6</v>
       </c>
       <c r="L12" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
       <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="21"/>
       <c r="L13" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
       <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="21"/>
       <c r="L14" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
       <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="21"/>
       <c r="L15" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="J16" s="3" t="s">
+      <c r="F16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="J16" s="22" t="s">
         <v>17</v>
       </c>
       <c r="L16" t="s">
         <v>0</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="M16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
+      <c r="C17" s="22"/>
       <c r="E17" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="J17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="J17" s="22"/>
       <c r="L17" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="M17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
+      <c r="C18" s="22"/>
       <c r="E18" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="J18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="22"/>
       <c r="L18" t="s">
         <v>6</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4" t="s">
+      <c r="F19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="21" t="s">
         <v>14</v>
       </c>
       <c r="L19" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="M19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
       <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="21"/>
       <c r="L20" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="M20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="21"/>
       <c r="L21" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
       <c r="E22" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="21"/>
       <c r="L22" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="4" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="21" t="s">
         <v>6</v>
       </c>
       <c r="L23" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
       <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="21"/>
       <c r="L24" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="21"/>
       <c r="L25" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
       <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="21"/>
       <c r="L26" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1415,11 +1500,11 @@
       <c r="H29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
       <c r="M29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1431,467 +1516,471 @@
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="J30" s="3" t="s">
+      <c r="F30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="J30" s="22" t="s">
         <v>15</v>
       </c>
       <c r="L30" t="s">
         <v>1</v>
       </c>
-      <c r="M30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
+      <c r="M30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="3"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
+      <c r="C31" s="22"/>
       <c r="E31" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="J31" s="3"/>
+      <c r="F31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="J31" s="22"/>
       <c r="L31" t="s">
         <v>7</v>
       </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="3"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
+      <c r="C32" s="22"/>
       <c r="E32" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="J32" s="3"/>
+      <c r="F32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="J32" s="22"/>
       <c r="L32" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" s="3"/>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
+      <c r="C33" s="22"/>
       <c r="E33" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="J33" s="3"/>
+      <c r="F33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="J33" s="22"/>
       <c r="L33" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="4" t="s">
+      <c r="F34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="21" t="s">
         <v>14</v>
       </c>
       <c r="L34" t="s">
         <v>10</v>
       </c>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="21"/>
       <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="21"/>
       <c r="L35" t="s">
         <v>11</v>
       </c>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="21"/>
       <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="21"/>
       <c r="L36" t="s">
         <v>12</v>
       </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="21"/>
       <c r="E37" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="21"/>
       <c r="L37" t="s">
         <v>13</v>
       </c>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="22"/>
+      <c r="D38" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="4" t="s">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="21" t="s">
         <v>6</v>
       </c>
       <c r="L38" t="s">
         <v>10</v>
       </c>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21"/>
       <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="4"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="21"/>
       <c r="L39" t="s">
         <v>11</v>
       </c>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
       <c r="E40" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="4"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="21"/>
       <c r="L40" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="21"/>
       <c r="E41" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="21"/>
       <c r="L41" t="s">
         <v>13</v>
       </c>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E42" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="J42" s="3" t="s">
+      <c r="F42" s="3"/>
+      <c r="G42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="J42" s="22" t="s">
         <v>17</v>
       </c>
       <c r="L42" t="s">
         <v>0</v>
       </c>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42" s="3"/>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="3"/>
+      <c r="C43" s="22"/>
       <c r="E43" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="J43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="J43" s="22"/>
       <c r="L43" t="s">
         <v>16</v>
       </c>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43" s="3"/>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="3"/>
+      <c r="C44" s="22"/>
       <c r="E44" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="J44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="J44" s="22"/>
       <c r="L44" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="3"/>
-      <c r="D45" s="4" t="s">
+      <c r="C45" s="22"/>
+      <c r="D45" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="4" t="s">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="21" t="s">
         <v>14</v>
       </c>
       <c r="L45" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="21"/>
       <c r="E46" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="4"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="21"/>
       <c r="L46" t="s">
         <v>11</v>
       </c>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21"/>
       <c r="E47" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="4"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="21"/>
       <c r="L47" t="s">
         <v>12</v>
       </c>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="21"/>
       <c r="E48" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="4"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="21"/>
       <c r="L48" t="s">
         <v>13</v>
       </c>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C49" s="3"/>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="22"/>
+      <c r="D49" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="4" t="s">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="21" t="s">
         <v>6</v>
       </c>
       <c r="L49" t="s">
         <v>10</v>
       </c>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="21"/>
       <c r="E50" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="4"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="21"/>
       <c r="L50" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="21"/>
       <c r="E51" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="4"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="21"/>
       <c r="L51" t="s">
         <v>12</v>
       </c>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="21"/>
       <c r="E52" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="4"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="21"/>
       <c r="L52" t="s">
         <v>13</v>
       </c>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="K49:K52"/>
     <mergeCell ref="K45:K48"/>
     <mergeCell ref="K38:K41"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:J41"/>
-    <mergeCell ref="J42:J52"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:C41"/>
-    <mergeCell ref="C42:C52"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="D38:D41"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J4:J15"/>
@@ -1902,6 +1991,22 @@
     <mergeCell ref="C4:C15"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="D23:D26"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="J30:J41"/>
+    <mergeCell ref="J42:J52"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:C41"/>
+    <mergeCell ref="C42:C52"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="K49:K52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1912,7 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F9E0EA-61C4-47C2-A826-BEE1ED70E717}">
   <dimension ref="A3:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1927,14 +2032,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H3" s="9"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H4" s="9"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -1968,10 +2073,10 @@
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E9">
@@ -1982,55 +2087,55 @@
       <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="10">
         <v>4.8939997687014701E-8</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="10">
         <v>9.8742342438588894E-9</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="10">
         <v>1.12646409915507E-7</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="10">
         <v>9.7536531108163703E-9</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10">
         <v>6.6492570714188906E-8</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="10">
         <v>9.9442034938295998E-9</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="10">
         <v>1.3299336464465399E-7</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="10">
         <v>9.9738805339807703E-9</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10">
         <v>4.88059551813395E-8</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="10">
         <v>9.8008423040750992E-9</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="10">
         <v>9.2497754797146498E-8</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="10">
         <v>7.3316970521904E-9</v>
       </c>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13">
+      <c r="U10" s="10"/>
+      <c r="V10" s="10">
         <v>6.6347881264254002E-8</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W10" s="10">
         <v>9.9423586288473307E-9</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X10" s="10">
         <v>1.2862428014469701E-7</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y10" s="10">
         <v>9.3691647930277399E-9</v>
       </c>
     </row>
@@ -2038,55 +2143,55 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="11">
         <v>0.99281066757651104</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="8">
         <v>0.14597698338958601</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="8">
         <v>3.0881445966930098E-3</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="8">
         <v>3.0495824637673301E-4</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8">
         <v>5.6557092712529101E-2</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="11">
         <v>0.99909326194426895</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="8">
         <v>2.8251629038076601E-2</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="8">
         <v>3.9920165950031996E-3</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11">
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8">
         <v>3.6700383183055E-3</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="8">
         <v>3.0317515176920499E-4</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="11">
         <v>0.98881396113460296</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="8">
         <v>0.185151419965184</v>
       </c>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11">
+      <c r="U11" s="8"/>
+      <c r="V11" s="8">
         <v>2.7986863007124899E-2</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="8">
         <v>3.1032481730620801E-3</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="8">
         <v>2.8029769571557499E-2</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y11" s="11">
         <v>0.99949413213090099</v>
       </c>
     </row>
@@ -2097,10 +2202,10 @@
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>0.01</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>0.01</v>
       </c>
       <c r="E12">
@@ -2111,55 +2216,55 @@
       <c r="F13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="9">
         <v>4.8939997687007099E-5</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="9">
         <v>9.8742342438601392E-6</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="9">
         <v>1.12646409915458E-4</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="9">
         <v>9.7536531108134505E-6</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12">
+      <c r="K13" s="9"/>
+      <c r="L13" s="9">
         <v>6.6492570713792305E-5</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="9">
         <v>9.9442034938605205E-6</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="9">
         <v>1.3299336464419299E-4</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="9">
         <v>9.9738805340498193E-6</v>
       </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12">
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9">
         <v>4.8805955181343503E-5</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="9">
         <v>9.8008423040749493E-6</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="9">
         <v>9.2497754797145202E-5</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="9">
         <v>7.3316970521900297E-6</v>
       </c>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12">
+      <c r="U13" s="9"/>
+      <c r="V13" s="9">
         <v>6.6347881264282801E-5</v>
       </c>
-      <c r="W13" s="12">
+      <c r="W13" s="9">
         <v>9.9423586288492303E-6</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="9">
         <v>1.2862428014512699E-4</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y13" s="9">
         <v>9.3691647930669703E-6</v>
       </c>
     </row>
@@ -2167,55 +2272,55 @@
       <c r="F14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="12">
         <v>0.99281066757651104</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="12">
         <v>0.14597698338958601</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="12">
         <v>3.0881445966930098E-3</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="12">
         <v>3.0495824637673301E-4</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15">
+      <c r="K14" s="12"/>
+      <c r="L14" s="12">
         <v>5.6557092712529101E-2</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="12">
         <v>0.99909326194426895</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="12">
         <v>2.8251629038076601E-2</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="12">
         <v>3.9920165950031996E-3</v>
       </c>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15">
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12">
         <v>3.6700383183055E-3</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="12">
         <v>3.0317515176920499E-4</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S14" s="12">
         <v>0.98881396113460296</v>
       </c>
-      <c r="T14" s="15">
+      <c r="T14" s="12">
         <v>0.185151419965184</v>
       </c>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15">
+      <c r="U14" s="12"/>
+      <c r="V14" s="12">
         <v>2.7986863007124899E-2</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W14" s="12">
         <v>3.1032481730620801E-3</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X14" s="12">
         <v>2.8029769571557499E-2</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="Y14" s="12">
         <v>0.99949413213090099</v>
       </c>
     </row>
@@ -2226,10 +2331,10 @@
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>10</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <v>10</v>
       </c>
       <c r="E15">
@@ -2240,55 +2345,55 @@
       <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="9">
         <v>4.8939997687014403E-2</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="9">
         <v>9.87423424385892E-3</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="9">
         <v>0.1126464099155</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="9">
         <v>9.7536531108165601E-3</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9">
         <v>6.6492570714947893E-2</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="9">
         <v>9.9442034938368399E-3</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="9">
         <v>0.13299336464758299</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="9">
         <v>9.9738805342037204E-3</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12">
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9">
         <v>4.88059551813399E-2</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="9">
         <v>9.8008423040752499E-3</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="9">
         <v>9.2497754797142895E-2</v>
       </c>
-      <c r="T16" s="12">
+      <c r="T16" s="9">
         <v>7.3316970521898599E-3</v>
       </c>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12">
+      <c r="U16" s="9"/>
+      <c r="V16" s="9">
         <v>6.6347881264471803E-2</v>
       </c>
-      <c r="W16" s="12">
+      <c r="W16" s="9">
         <v>9.9423586288507008E-3</v>
       </c>
-      <c r="X16" s="12">
+      <c r="X16" s="9">
         <v>0.128624280144957</v>
       </c>
-      <c r="Y16" s="12">
+      <c r="Y16" s="9">
         <v>9.36916479303628E-3</v>
       </c>
     </row>
@@ -2296,55 +2401,55 @@
       <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="12">
         <v>0.99281066757651104</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="12">
         <v>0.14597698338958601</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="12">
         <v>3.0881445966930098E-3</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="12">
         <v>3.0495824637673301E-4</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15">
+      <c r="K17" s="12"/>
+      <c r="L17" s="12">
         <v>5.6557092712529101E-2</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="12">
         <v>0.99909326194426895</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="12">
         <v>2.8251629038076601E-2</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="12">
         <v>3.9920165950031996E-3</v>
       </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12">
         <v>3.6700383183055E-3</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="12">
         <v>3.0317515176920499E-4</v>
       </c>
-      <c r="S17" s="15">
+      <c r="S17" s="12">
         <v>0.98881396113460296</v>
       </c>
-      <c r="T17" s="15">
+      <c r="T17" s="12">
         <v>0.185151419965184</v>
       </c>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15">
+      <c r="U17" s="12"/>
+      <c r="V17" s="12">
         <v>2.7986863007124899E-2</v>
       </c>
-      <c r="W17" s="15">
+      <c r="W17" s="12">
         <v>3.1032481730620801E-3</v>
       </c>
-      <c r="X17" s="15">
+      <c r="X17" s="12">
         <v>2.8029769571557499E-2</v>
       </c>
-      <c r="Y17" s="15">
+      <c r="Y17" s="12">
         <v>0.99949413213090099</v>
       </c>
     </row>
@@ -2355,88 +2460,88 @@
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E18">
         <v>0.5</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="9">
         <v>2.4620535213632202E-7</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="9">
         <v>4.5428418477513999E-8</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="9">
         <v>5.6459876445086E-7</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="9">
         <v>4.8624436299256197E-8</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9">
         <v>3.3156694189375498E-7</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="9">
         <v>4.58435507267688E-8</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="9">
         <v>6.6397273614156102E-7</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="9">
         <v>4.9720437999137501E-8</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12">
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9">
         <v>2.4525352403271101E-7</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="9">
         <v>4.5061441152869297E-8</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="9">
         <v>4.70565450710918E-7</v>
       </c>
-      <c r="T19" s="12">
+      <c r="T19" s="9">
         <v>3.6578681759112099E-8</v>
       </c>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12">
+      <c r="U19" s="9"/>
+      <c r="V19" s="9">
         <v>3.3084134147816398E-7</v>
       </c>
-      <c r="W19" s="12">
+      <c r="W19" s="9">
         <v>4.5767685104192503E-8</v>
       </c>
-      <c r="X19" s="12">
+      <c r="X19" s="9">
         <v>6.4224225565425401E-7</v>
       </c>
-      <c r="Y19" s="12">
+      <c r="Y19" s="9">
         <v>4.6800691552194801E-8</v>
       </c>
     </row>
@@ -2444,55 +2549,55 @@
       <c r="F20" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="8">
         <v>0.95618711500058196</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="8">
         <v>0.34294061144940402</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="8">
         <v>4.22767355615013E-2</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="8">
         <v>2.3805842936665499E-2</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11">
+      <c r="K20" s="8"/>
+      <c r="L20" s="8">
         <v>0.184266902530691</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="8">
         <v>0.99902563032463298</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="8">
         <v>8.9446020872030796E-2</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="8">
         <v>7.7959659166692702E-2</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11">
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8">
         <v>7.1745161652085401E-2</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="8">
         <v>1.9105459570677798E-2</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="8">
         <v>0.76799074925310995</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="8">
         <v>0.732722618333849</v>
       </c>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11">
+      <c r="U20" s="8"/>
+      <c r="V20" s="8">
         <v>0.134492433441085</v>
       </c>
-      <c r="W20" s="11">
+      <c r="W20" s="8">
         <v>4.3658532466155198E-2</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X20" s="8">
         <v>0.137952717029765</v>
       </c>
-      <c r="Y20" s="11">
+      <c r="Y20" s="8">
         <v>0.98821115452326203</v>
       </c>
     </row>
@@ -2503,88 +2608,88 @@
       <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6">
         <v>0.01</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="6">
         <v>0.01</v>
       </c>
       <c r="E21">
         <v>0.5</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="9">
         <v>2.4620535213632497E-4</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="9">
         <v>4.5428418477514102E-5</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="9">
         <v>5.6459876445086603E-4</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="9">
         <v>4.8624436299252898E-5</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12">
+      <c r="K22" s="9"/>
+      <c r="L22" s="9">
         <v>3.3156694189346702E-4</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="9">
         <v>4.5843550726775701E-5</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="9">
         <v>6.6397273614075597E-4</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="9">
         <v>4.9720437999091299E-5</v>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12">
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9">
         <v>2.4525352403270901E-4</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="9">
         <v>4.5061441152869099E-5</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="9">
         <v>4.7056545071092701E-4</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="9">
         <v>3.6578681759112497E-5</v>
       </c>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12">
+      <c r="U22" s="9"/>
+      <c r="V22" s="9">
         <v>3.3084134147820499E-4</v>
       </c>
-      <c r="W22" s="12">
+      <c r="W22" s="9">
         <v>4.5767685104199199E-5</v>
       </c>
-      <c r="X22" s="12">
+      <c r="X22" s="9">
         <v>6.42242255654315E-4</v>
       </c>
-      <c r="Y22" s="12">
+      <c r="Y22" s="9">
         <v>4.68006915522013E-5</v>
       </c>
     </row>
@@ -2592,55 +2697,55 @@
       <c r="F23" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="8">
         <v>0.95618711500058196</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="8">
         <v>0.34294061144940402</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="8">
         <v>4.22767355615013E-2</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="8">
         <v>2.3805842936665499E-2</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11">
+      <c r="K23" s="8"/>
+      <c r="L23" s="8">
         <v>0.184266902530691</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="8">
         <v>0.99902563032463298</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="8">
         <v>8.9446020872030796E-2</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="8">
         <v>7.7959659166692702E-2</v>
       </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11">
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8">
         <v>7.1745161652085401E-2</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="8">
         <v>1.9105459570677798E-2</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S23" s="8">
         <v>0.76799074925310995</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="8">
         <v>0.732722618333849</v>
       </c>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11">
+      <c r="U23" s="8"/>
+      <c r="V23" s="8">
         <v>0.134492433441085</v>
       </c>
-      <c r="W23" s="11">
+      <c r="W23" s="8">
         <v>4.3658532466155198E-2</v>
       </c>
-      <c r="X23" s="11">
+      <c r="X23" s="8">
         <v>0.137952717029765</v>
       </c>
-      <c r="Y23" s="11">
+      <c r="Y23" s="8">
         <v>0.98821115452326203</v>
       </c>
     </row>
@@ -2651,88 +2756,88 @@
       <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>10</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="6">
         <v>10</v>
       </c>
       <c r="E24">
         <v>0.5</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="9">
         <v>0.24620535213632599</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="9">
         <v>4.54284184775137E-2</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="9">
         <v>0.56459876445087598</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="9">
         <v>4.8624436299254101E-2</v>
       </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12">
+      <c r="K25" s="9"/>
+      <c r="L25" s="9">
         <v>0.331566941893435</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="9">
         <v>4.5843550726778301E-2</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="9">
         <v>0.66397273614048602</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="9">
         <v>4.97204379990724E-2</v>
       </c>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12">
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9">
         <v>0.245253524032711</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="9">
         <v>4.50614411528691E-2</v>
       </c>
-      <c r="S25" s="12">
+      <c r="S25" s="9">
         <v>0.47056545071092698</v>
       </c>
-      <c r="T25" s="12">
+      <c r="T25" s="9">
         <v>3.6578681759112899E-2</v>
       </c>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12">
+      <c r="U25" s="9"/>
+      <c r="V25" s="9">
         <v>0.33084134147815403</v>
       </c>
-      <c r="W25" s="12">
+      <c r="W25" s="9">
         <v>4.5767685104187598E-2</v>
       </c>
-      <c r="X25" s="12">
+      <c r="X25" s="9">
         <v>0.64224225565424298</v>
       </c>
-      <c r="Y25" s="12">
+      <c r="Y25" s="9">
         <v>4.6800691552192603E-2</v>
       </c>
     </row>
@@ -2740,78 +2845,78 @@
       <c r="F26" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="8">
         <v>0.95618711500058196</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="8">
         <v>0.34294061144940402</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="8">
         <v>4.22767355615013E-2</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="8">
         <v>2.3805842936665499E-2</v>
       </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8">
         <v>0.184266902530691</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="8">
         <v>0.99902563032463298</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="8">
         <v>8.9446020872030796E-2</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="8">
         <v>7.7959659166692702E-2</v>
       </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11">
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8">
         <v>7.1745161652085401E-2</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R26" s="8">
         <v>1.9105459570677798E-2</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S26" s="8">
         <v>0.76799074925310995</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="8">
         <v>0.732722618333849</v>
       </c>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11">
+      <c r="U26" s="8"/>
+      <c r="V26" s="8">
         <v>0.134492433441085</v>
       </c>
-      <c r="W26" s="11">
+      <c r="W26" s="8">
         <v>4.3658532466155198E-2</v>
       </c>
-      <c r="X26" s="11">
+      <c r="X26" s="8">
         <v>0.137952717029765</v>
       </c>
-      <c r="Y26" s="11">
+      <c r="Y26" s="8">
         <v>0.98821115452326203</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2820,88 +2925,88 @@
       <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E28">
         <v>0.2</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="9">
         <v>9.8071205576746604E-9</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="9">
         <v>1.9537292335432002E-9</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="9">
         <v>2.25475760287245E-8</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="9">
         <v>1.95001747662247E-9</v>
       </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12">
+      <c r="K29" s="9"/>
+      <c r="L29" s="9">
         <v>1.32936413884236E-8</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="9">
         <v>1.9685672106156301E-9</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="9">
         <v>2.65936986498302E-8</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" s="9">
         <v>1.99403014282049E-9</v>
       </c>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12">
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9">
         <v>9.7774086826868005E-9</v>
       </c>
-      <c r="R29" s="12">
+      <c r="R29" s="9">
         <v>1.93904397053122E-9</v>
       </c>
-      <c r="S29" s="12">
+      <c r="S29" s="9">
         <v>1.8582390186879399E-8</v>
       </c>
-      <c r="T29" s="12">
+      <c r="T29" s="9">
         <v>1.4660298990406499E-9</v>
       </c>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12">
+      <c r="U29" s="9"/>
+      <c r="V29" s="9">
         <v>1.32646986698365E-8</v>
       </c>
-      <c r="W29" s="12">
+      <c r="W29" s="9">
         <v>1.9673405107222399E-9</v>
       </c>
-      <c r="X29" s="12">
+      <c r="X29" s="9">
         <v>2.57204557201514E-8</v>
       </c>
-      <c r="Y29" s="12">
+      <c r="Y29" s="9">
         <v>1.8740463985545402E-9</v>
       </c>
     </row>
@@ -2909,55 +3014,55 @@
       <c r="F30" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="8">
         <v>0.98088911158479097</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="8">
         <v>0.23333486592908001</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="8">
         <v>1.04126463889774E-2</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="8">
         <v>2.1330493427045901E-3</v>
       </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11">
+      <c r="K30" s="8"/>
+      <c r="L30" s="8">
         <v>0.106876541357107</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="8">
         <v>0.99796585510084601</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="8">
         <v>5.3220123401454801E-2</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="8">
         <v>1.59629735583901E-2</v>
       </c>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11">
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8">
         <v>1.4194894880998499E-2</v>
       </c>
-      <c r="R30" s="11">
+      <c r="R30" s="8">
         <v>2.0690552883621698E-3</v>
       </c>
-      <c r="S30" s="11">
+      <c r="S30" s="8">
         <v>0.95608089025106002</v>
       </c>
-      <c r="T30" s="11">
+      <c r="T30" s="8">
         <v>0.35896675970047098</v>
       </c>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11">
+      <c r="U30" s="8"/>
+      <c r="V30" s="8">
         <v>5.55984433061191E-2</v>
       </c>
-      <c r="W30" s="11">
+      <c r="W30" s="8">
         <v>1.0542970527271E-2</v>
       </c>
-      <c r="X30" s="11">
+      <c r="X30" s="8">
         <v>5.5901684991978201E-2</v>
       </c>
-      <c r="Y30" s="11">
+      <c r="Y30" s="8">
         <v>0.99798799284108497</v>
       </c>
     </row>
@@ -2968,88 +3073,88 @@
       <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="6">
         <v>1E-3</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="6">
         <v>1E-3</v>
       </c>
       <c r="E31">
         <v>0.2</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="9">
         <v>9.8071205576732392E-6</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="9">
         <v>1.95372923354306E-6</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="9">
         <v>2.2547576028716099E-5</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="9">
         <v>1.9500174766220401E-6</v>
       </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12">
+      <c r="K32" s="9"/>
+      <c r="L32" s="9">
         <v>1.3293641388534101E-5</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="9">
         <v>1.96856721061708E-6</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="9">
         <v>2.6593698650307001E-5</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="9">
         <v>1.9940301428536002E-6</v>
       </c>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12">
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9">
         <v>9.7774086826870603E-6</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="9">
         <v>1.9390439705312201E-6</v>
       </c>
-      <c r="S32" s="12">
+      <c r="S32" s="9">
         <v>1.8582390186879201E-5</v>
       </c>
-      <c r="T32" s="12">
+      <c r="T32" s="9">
         <v>1.4660298990406499E-6</v>
       </c>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12">
+      <c r="U32" s="9"/>
+      <c r="V32" s="9">
         <v>1.3264698669798601E-5</v>
       </c>
-      <c r="W32" s="12">
+      <c r="W32" s="9">
         <v>1.9673405107100698E-6</v>
       </c>
-      <c r="X32" s="12">
+      <c r="X32" s="9">
         <v>2.5720455720124199E-5</v>
       </c>
-      <c r="Y32" s="12">
+      <c r="Y32" s="9">
         <v>1.8740463985540899E-6</v>
       </c>
     </row>
@@ -3057,55 +3162,55 @@
       <c r="F33" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="8">
         <v>0.98088911158479097</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="8">
         <v>0.23333486592908001</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="8">
         <v>1.04126463889774E-2</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="8">
         <v>2.1330493427045901E-3</v>
       </c>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11">
+      <c r="K33" s="8"/>
+      <c r="L33" s="8">
         <v>0.106876541357107</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="8">
         <v>0.99796585510084601</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="8">
         <v>5.3220123401454801E-2</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="8">
         <v>1.59629735583901E-2</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11">
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8">
         <v>1.4194894880998499E-2</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R33" s="8">
         <v>2.0690552883621698E-3</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="8">
         <v>0.95608089025106002</v>
       </c>
-      <c r="T33" s="11">
+      <c r="T33" s="8">
         <v>0.35896675970047098</v>
       </c>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11">
+      <c r="U33" s="8"/>
+      <c r="V33" s="8">
         <v>5.55984433061191E-2</v>
       </c>
-      <c r="W33" s="11">
+      <c r="W33" s="8">
         <v>1.0542970527271E-2</v>
       </c>
-      <c r="X33" s="11">
+      <c r="X33" s="8">
         <v>5.5901684991978201E-2</v>
       </c>
-      <c r="Y33" s="11">
+      <c r="Y33" s="8">
         <v>0.99798799284108497</v>
       </c>
     </row>
@@ -3116,88 +3221,88 @@
       <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="6">
         <v>1</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="6">
         <v>1</v>
       </c>
       <c r="E34">
         <v>0.2</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="9">
         <v>9.8071205576736892E-3</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="9">
         <v>1.9537292335431002E-3</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="9">
         <v>2.2547576028716699E-2</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="9">
         <v>1.95001747662214E-3</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12">
+      <c r="K35" s="9"/>
+      <c r="L35" s="9">
         <v>1.3293641388486399E-2</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="9">
         <v>1.9685672106161899E-3</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="9">
         <v>2.6593698650113299E-2</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" s="9">
         <v>1.9940301428404699E-3</v>
       </c>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12">
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9">
         <v>9.7774086826870003E-3</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R35" s="9">
         <v>1.9390439705312199E-3</v>
       </c>
-      <c r="S35" s="12">
+      <c r="S35" s="9">
         <v>1.8582390186879402E-2</v>
       </c>
-      <c r="T35" s="12">
+      <c r="T35" s="9">
         <v>1.4660298990406501E-3</v>
       </c>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12">
+      <c r="U35" s="9"/>
+      <c r="V35" s="9">
         <v>1.32646986698288E-2</v>
       </c>
-      <c r="W35" s="12">
+      <c r="W35" s="9">
         <v>1.9673405107220698E-3</v>
       </c>
-      <c r="X35" s="12">
+      <c r="X35" s="9">
         <v>2.5720455720121702E-2</v>
       </c>
-      <c r="Y35" s="12">
+      <c r="Y35" s="9">
         <v>1.87404639855289E-3</v>
       </c>
     </row>
@@ -3205,55 +3310,55 @@
       <c r="F36" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="8">
         <v>0.98088911158479097</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="8">
         <v>0.23333486592908001</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="8">
         <v>1.04126463889774E-2</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="8">
         <v>2.1330493427045901E-3</v>
       </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11">
+      <c r="K36" s="8"/>
+      <c r="L36" s="8">
         <v>0.106876541357107</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M36" s="8">
         <v>0.99796585510084601</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N36" s="8">
         <v>5.3220123401454801E-2</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O36" s="8">
         <v>1.59629735583901E-2</v>
       </c>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11">
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8">
         <v>1.4194894880998499E-2</v>
       </c>
-      <c r="R36" s="11">
+      <c r="R36" s="8">
         <v>2.0690552883621698E-3</v>
       </c>
-      <c r="S36" s="11">
+      <c r="S36" s="8">
         <v>0.95608089025106002</v>
       </c>
-      <c r="T36" s="11">
+      <c r="T36" s="8">
         <v>0.35896675970047098</v>
       </c>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11">
+      <c r="U36" s="8"/>
+      <c r="V36" s="8">
         <v>5.55984433061191E-2</v>
       </c>
-      <c r="W36" s="11">
+      <c r="W36" s="8">
         <v>1.0542970527271E-2</v>
       </c>
-      <c r="X36" s="11">
+      <c r="X36" s="8">
         <v>5.5901684991978201E-2</v>
       </c>
-      <c r="Y36" s="11">
+      <c r="Y36" s="8">
         <v>0.99798799284108497</v>
       </c>
     </row>
@@ -3264,88 +3369,88 @@
       <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="E37">
         <v>0.4</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="9">
         <v>1.9673709496311601E-8</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="9">
         <v>3.7467609086871603E-9</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="9">
         <v>4.5149823517777401E-8</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="9">
         <v>3.8942807108645998E-9</v>
       </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12">
+      <c r="K38" s="9"/>
+      <c r="L38" s="9">
         <v>2.6550617611215799E-8</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="9">
         <v>3.7790547778361004E-9</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N38" s="9">
         <v>5.3147624954001297E-8</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O38" s="9">
         <v>3.9820994234823804E-9</v>
       </c>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12">
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9">
         <v>1.9602946057936901E-8</v>
       </c>
-      <c r="R38" s="12">
+      <c r="R38" s="9">
         <v>3.7173885347661001E-9</v>
       </c>
-      <c r="S38" s="12">
+      <c r="S38" s="9">
         <v>3.7487939341109699E-8</v>
       </c>
-      <c r="T38" s="12">
+      <c r="T38" s="9">
         <v>2.9288666287687798E-9</v>
       </c>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12">
+      <c r="U38" s="9"/>
+      <c r="V38" s="9">
         <v>2.6492657038390201E-8</v>
       </c>
-      <c r="W38" s="12">
+      <c r="W38" s="9">
         <v>3.7739280909153804E-9</v>
       </c>
-      <c r="X38" s="12">
+      <c r="X38" s="9">
         <v>5.1405735184174498E-8</v>
       </c>
-      <c r="Y38" s="12">
+      <c r="Y38" s="9">
         <v>3.7462874581196197E-9</v>
       </c>
     </row>
@@ -3353,55 +3458,55 @@
       <c r="F39" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="8">
         <v>0.96214021838679298</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="8">
         <v>0.320850828453971</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="8">
         <v>3.08941490782626E-2</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="8">
         <v>1.3509205677756901E-2</v>
       </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11">
+      <c r="K39" s="8"/>
+      <c r="L39" s="8">
         <v>0.169648850426381</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M39" s="8">
         <v>0.99840101913966395</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="8">
         <v>8.3292469899461596E-2</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O39" s="8">
         <v>5.5441132036857001E-2</v>
       </c>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11">
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8">
         <v>5.0021536199367597E-2</v>
       </c>
-      <c r="R39" s="11">
+      <c r="R39" s="8">
         <v>1.17252463941035E-2</v>
       </c>
-      <c r="S39" s="11">
+      <c r="S39" s="8">
         <v>0.83961068593010502</v>
       </c>
-      <c r="T39" s="11">
+      <c r="T39" s="8">
         <v>0.636609756544808</v>
       </c>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11">
+      <c r="U39" s="8"/>
+      <c r="V39" s="8">
         <v>0.10894317866070399</v>
       </c>
-      <c r="W39" s="11">
+      <c r="W39" s="8">
         <v>3.1688385791784998E-2</v>
       </c>
-      <c r="X39" s="11">
+      <c r="X39" s="8">
         <v>0.110893615188949</v>
       </c>
-      <c r="Y39" s="11">
+      <c r="Y39" s="8">
         <v>0.99222387377697496</v>
       </c>
     </row>
@@ -3412,88 +3517,88 @@
       <c r="B40" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="6">
         <v>1E-3</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="6">
         <v>1E-3</v>
       </c>
       <c r="E40">
         <v>0.4</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>31</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="9">
         <v>1.96737094963125E-5</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="9">
         <v>3.7467609086872799E-6</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="9">
         <v>4.5149823517780401E-5</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="9">
         <v>3.8942807108651796E-6</v>
       </c>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12">
+      <c r="K41" s="9"/>
+      <c r="L41" s="9">
         <v>2.6550617611172401E-5</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="9">
         <v>3.7790547778339202E-6</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="9">
         <v>5.3147624953834401E-5</v>
       </c>
-      <c r="O41" s="12">
+      <c r="O41" s="9">
         <v>3.9820994234748904E-6</v>
       </c>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12">
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9">
         <v>1.96029460579366E-5</v>
       </c>
-      <c r="R41" s="12">
+      <c r="R41" s="9">
         <v>3.7173885347660501E-6</v>
       </c>
-      <c r="S41" s="12">
+      <c r="S41" s="9">
         <v>3.7487939341107599E-5</v>
       </c>
-      <c r="T41" s="12">
+      <c r="T41" s="9">
         <v>2.9288666287686999E-6</v>
       </c>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12">
+      <c r="U41" s="9"/>
+      <c r="V41" s="9">
         <v>2.6492657038393602E-5</v>
       </c>
-      <c r="W41" s="12">
+      <c r="W41" s="9">
         <v>3.7739280909173998E-6</v>
       </c>
-      <c r="X41" s="12">
+      <c r="X41" s="9">
         <v>5.1405735184205397E-5</v>
       </c>
-      <c r="Y41" s="12">
+      <c r="Y41" s="9">
         <v>3.7462874581202601E-6</v>
       </c>
     </row>
@@ -3501,55 +3606,55 @@
       <c r="F42" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="8">
         <v>0.96214021838679298</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="8">
         <v>0.320850828453971</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="8">
         <v>3.08941490782626E-2</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="8">
         <v>1.3509205677756901E-2</v>
       </c>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11">
+      <c r="K42" s="8"/>
+      <c r="L42" s="8">
         <v>0.169648850426381</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M42" s="8">
         <v>0.99840101913966395</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N42" s="8">
         <v>8.3292469899461596E-2</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O42" s="8">
         <v>5.5441132036857001E-2</v>
       </c>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11">
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8">
         <v>5.0021536199367597E-2</v>
       </c>
-      <c r="R42" s="11">
+      <c r="R42" s="8">
         <v>1.17252463941035E-2</v>
       </c>
-      <c r="S42" s="11">
+      <c r="S42" s="8">
         <v>0.83961068593010502</v>
       </c>
-      <c r="T42" s="11">
+      <c r="T42" s="8">
         <v>0.636609756544808</v>
       </c>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11">
+      <c r="U42" s="8"/>
+      <c r="V42" s="8">
         <v>0.10894317866070399</v>
       </c>
-      <c r="W42" s="11">
+      <c r="W42" s="8">
         <v>3.1688385791784998E-2</v>
       </c>
-      <c r="X42" s="11">
+      <c r="X42" s="8">
         <v>0.110893615188949</v>
       </c>
-      <c r="Y42" s="11">
+      <c r="Y42" s="8">
         <v>0.99222387377697496</v>
       </c>
     </row>
@@ -3560,88 +3665,88 @@
       <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="6">
         <v>1</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="6">
         <v>1</v>
       </c>
       <c r="E43">
         <v>0.4</v>
       </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="9">
         <v>1.9673709496312398E-2</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="9">
         <v>3.7467609086872899E-3</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="9">
         <v>4.5149823517780303E-2</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44" s="9">
         <v>3.8942807108650499E-3</v>
       </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12">
+      <c r="K44" s="9"/>
+      <c r="L44" s="9">
         <v>2.65506176111691E-2</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="9">
         <v>3.7790547778350399E-3</v>
       </c>
-      <c r="N44" s="12">
+      <c r="N44" s="9">
         <v>5.3147624953817897E-2</v>
       </c>
-      <c r="O44" s="12">
+      <c r="O44" s="9">
         <v>3.9820994234708203E-3</v>
       </c>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12">
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9">
         <v>1.9602946057936801E-2</v>
       </c>
-      <c r="R44" s="12">
+      <c r="R44" s="9">
         <v>3.7173885347660698E-3</v>
       </c>
-      <c r="S44" s="12">
+      <c r="S44" s="9">
         <v>3.7487939341109097E-2</v>
       </c>
-      <c r="T44" s="12">
+      <c r="T44" s="9">
         <v>2.9288666287687298E-3</v>
       </c>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12">
+      <c r="U44" s="9"/>
+      <c r="V44" s="9">
         <v>2.6492657038388101E-2</v>
       </c>
-      <c r="W44" s="12">
+      <c r="W44" s="9">
         <v>3.7739280909159499E-3</v>
       </c>
-      <c r="X44" s="12">
+      <c r="X44" s="9">
         <v>5.1405735184196603E-2</v>
       </c>
-      <c r="Y44" s="12">
+      <c r="Y44" s="9">
         <v>3.74628745812011E-3</v>
       </c>
     </row>
@@ -3649,55 +3754,55 @@
       <c r="F45" t="s">
         <v>33</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="8">
         <v>0.96214021838679298</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="8">
         <v>0.320850828453971</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="8">
         <v>3.08941490782626E-2</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="8">
         <v>1.3509205677756901E-2</v>
       </c>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11">
+      <c r="K45" s="8"/>
+      <c r="L45" s="8">
         <v>0.169648850426381</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M45" s="8">
         <v>0.99840101913966395</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N45" s="8">
         <v>8.3292469899461596E-2</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O45" s="8">
         <v>5.5441132036857001E-2</v>
       </c>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11">
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8">
         <v>5.0021536199367597E-2</v>
       </c>
-      <c r="R45" s="11">
+      <c r="R45" s="8">
         <v>1.17252463941035E-2</v>
       </c>
-      <c r="S45" s="11">
+      <c r="S45" s="8">
         <v>0.83961068593010502</v>
       </c>
-      <c r="T45" s="11">
+      <c r="T45" s="8">
         <v>0.636609756544808</v>
       </c>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11">
+      <c r="U45" s="8"/>
+      <c r="V45" s="8">
         <v>0.10894317866070399</v>
       </c>
-      <c r="W45" s="11">
+      <c r="W45" s="8">
         <v>3.1688385791784998E-2</v>
       </c>
-      <c r="X45" s="11">
+      <c r="X45" s="8">
         <v>0.110893615188949</v>
       </c>
-      <c r="Y45" s="11">
+      <c r="Y45" s="8">
         <v>0.99222387377697496</v>
       </c>
     </row>
@@ -3709,328 +3814,641 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC063ABA-5B2E-4FD4-B5A8-4B60EA86BB24}">
-  <dimension ref="B1:M15"/>
+  <dimension ref="B1:M32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E6" s="30"/>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="22"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="31"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="27">
+      <c r="F7" s="19">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="19">
         <v>1E-4</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="19">
         <v>1E-3</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="19">
         <v>0.01</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="19">
         <v>0.1</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="19">
         <v>1</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="B8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="19">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="15">
         <v>-0.250042238971738</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="15">
         <v>-0.270699391974703</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="15">
         <v>-0.27473479405621398</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="15">
         <v>-0.27519193921292801</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="15">
         <v>-0.27523829940153</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="15">
         <v>-0.27524294201379101</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="15">
         <v>-0.27524340634108901</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="16">
         <v>-0.27524345277447998</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="20"/>
-      <c r="E9" s="27">
+      <c r="D9" s="25"/>
+      <c r="E9" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="15">
         <v>-0.207555612133067</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="15">
         <v>-0.25004223897174499</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="15">
         <v>-0.27069939197470799</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="15">
         <v>-0.27473479405621498</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="15">
         <v>-0.275191939212931</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="15">
         <v>-0.275238299401524</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="15">
         <v>-0.27524294201378402</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="16">
         <v>-0.27524340634109201</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="20"/>
-      <c r="E10" s="27">
+      <c r="D10" s="25"/>
+      <c r="E10" s="19">
         <v>1E-4</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="15">
         <v>-0.16019541013112601</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="15">
         <v>-0.20755561213305801</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="15">
         <v>-0.25004223897174899</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="15">
         <v>-0.270699391974704</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="15">
         <v>-0.27473479405621298</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="15">
         <v>-0.27519193921293</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="15">
         <v>-0.275238299401527</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="16">
         <v>-0.27524294201379002</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="20"/>
-      <c r="E11" s="27">
+      <c r="D11" s="25"/>
+      <c r="E11" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="15">
         <v>-0.120831846866127</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="15">
         <v>-0.16019541013113101</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="15">
         <v>-0.207555612133066</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="15">
         <v>-0.25004223897175099</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="15">
         <v>-0.270699391974704</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="15">
         <v>-0.27473479405621298</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="15">
         <v>-0.27519193921293</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="16">
         <v>-0.27523829940153199</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="20"/>
-      <c r="E12" s="27">
+      <c r="D12" s="25"/>
+      <c r="E12" s="19">
         <v>0.01</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="15">
         <v>-9.3563138339559704E-2</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="15">
         <v>-0.12083184686607699</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="15">
         <v>-0.16019541013112801</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="15">
         <v>-0.207555612133064</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="15">
         <v>-0.25004223897174699</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="15">
         <v>-0.27069939197470999</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="15">
         <v>-0.27473479405621198</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="16">
         <v>-0.27519193921292801</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="20"/>
-      <c r="E13" s="27">
+      <c r="D13" s="25"/>
+      <c r="E13" s="19">
         <v>0.1</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="15">
         <v>-7.8899317859666696E-2</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="15">
         <v>-9.3563138339594898E-2</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="15">
         <v>-0.120831846866082</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="15">
         <v>-0.16019541013112701</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="15">
         <v>-0.20755561213306301</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="15">
         <v>-0.25004223897175099</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="15">
         <v>-0.270699391974696</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="16">
         <v>-0.27473479405621898</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="20"/>
-      <c r="E14" s="27">
+      <c r="D14" s="25"/>
+      <c r="E14" s="19">
         <v>1</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="15">
         <v>-7.2719524360785007E-2</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="15">
         <v>-7.8899317859697699E-2</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="15">
         <v>-9.3563138339600296E-2</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="15">
         <v>-0.120831846866087</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="15">
         <v>-0.16019541013112801</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="15">
         <v>-0.207555612133064</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="15">
         <v>-0.25004223897175099</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="16">
         <v>-0.27069939197471099</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="27">
+        <v>41</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="19">
         <v>10</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="17">
         <v>-7.1350197585333397E-2</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="17">
         <v>-7.2719524361068502E-2</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="17">
         <v>-7.8899317859708898E-2</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="17">
         <v>-9.3563138339603905E-2</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="17">
         <v>-0.120831846866083</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="17">
         <v>-0.16019541013112801</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="17">
         <v>-0.207555612133065</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="18">
         <v>-0.25004223897174999</v>
       </c>
     </row>
+    <row r="16" spans="2:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
+    </row>
+    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="19">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H23" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="I23" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="J23" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="L23" s="19">
+        <v>1</v>
+      </c>
+      <c r="M23" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="19">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F24" s="33">
+        <v>2.1402739889654701E-2</v>
+      </c>
+      <c r="G24" s="33">
+        <v>-9.0220722981908697E-4</v>
+      </c>
+      <c r="H24" s="33">
+        <v>-3.3533931011543297E-2</v>
+      </c>
+      <c r="I24" s="33">
+        <v>-6.2054746639113097E-2</v>
+      </c>
+      <c r="J24" s="33">
+        <v>-8.2369204706973204E-2</v>
+      </c>
+      <c r="K24" s="33">
+        <v>-9.50236247241978E-2</v>
+      </c>
+      <c r="L24" s="33">
+        <v>-0.100292654163738</v>
+      </c>
+      <c r="M24" s="34">
+        <v>-9.8169384998977802E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="25"/>
+      <c r="E25" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F25" s="33">
+        <v>2.81782314135368E-2</v>
+      </c>
+      <c r="G25" s="33">
+        <v>2.1402739889977401E-2</v>
+      </c>
+      <c r="H25" s="33">
+        <v>-9.0220723079874104E-4</v>
+      </c>
+      <c r="I25" s="33">
+        <v>-3.35339310115104E-2</v>
+      </c>
+      <c r="J25" s="33">
+        <v>-6.2054746639122901E-2</v>
+      </c>
+      <c r="K25" s="33">
+        <v>-8.2369204707228499E-2</v>
+      </c>
+      <c r="L25" s="33">
+        <v>-9.5023624721417496E-2</v>
+      </c>
+      <c r="M25" s="34">
+        <v>-0.100292654244463</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="25"/>
+      <c r="E26" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="F26" s="33">
+        <v>2.9139493080244001E-2</v>
+      </c>
+      <c r="G26" s="33">
+        <v>2.8178231395317201E-2</v>
+      </c>
+      <c r="H26" s="33">
+        <v>2.1402739890088899E-2</v>
+      </c>
+      <c r="I26" s="33">
+        <v>-9.0220723006083402E-4</v>
+      </c>
+      <c r="J26" s="33">
+        <v>-3.3533931011459801E-2</v>
+      </c>
+      <c r="K26" s="33">
+        <v>-6.2054746639043402E-2</v>
+      </c>
+      <c r="L26" s="33">
+        <v>-8.2369204708366298E-2</v>
+      </c>
+      <c r="M26" s="34">
+        <v>-9.5023624731304698E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="25"/>
+      <c r="E27" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="F27" s="33">
+        <v>2.92407080653104E-2</v>
+      </c>
+      <c r="G27" s="33">
+        <v>2.9139493040169301E-2</v>
+      </c>
+      <c r="H27" s="33">
+        <v>2.8178231401068898E-2</v>
+      </c>
+      <c r="I27" s="33">
+        <v>2.1402739886567799E-2</v>
+      </c>
+      <c r="J27" s="33">
+        <v>-9.0220723057021801E-4</v>
+      </c>
+      <c r="K27" s="33">
+        <v>-3.3533931011424399E-2</v>
+      </c>
+      <c r="L27" s="33">
+        <v>-6.20547466388588E-2</v>
+      </c>
+      <c r="M27" s="34">
+        <v>-8.2369204706551305E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="25"/>
+      <c r="E28" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="F28" s="33">
+        <v>2.9250891418238799E-2</v>
+      </c>
+      <c r="G28" s="33">
+        <v>2.92407082069207E-2</v>
+      </c>
+      <c r="H28" s="33">
+        <v>2.91394930026878E-2</v>
+      </c>
+      <c r="I28" s="33">
+        <v>2.8178231414341101E-2</v>
+      </c>
+      <c r="J28" s="33">
+        <v>2.1402739886498101E-2</v>
+      </c>
+      <c r="K28" s="33">
+        <v>-9.0220723067945495E-4</v>
+      </c>
+      <c r="L28" s="33">
+        <v>-3.3533931011455603E-2</v>
+      </c>
+      <c r="M28" s="34">
+        <v>-6.2054746638996197E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="25"/>
+      <c r="E29" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="33">
+        <v>2.9251915684090701E-2</v>
+      </c>
+      <c r="G29" s="33">
+        <v>2.9250884673342099E-2</v>
+      </c>
+      <c r="H29" s="33">
+        <v>2.9240707908962701E-2</v>
+      </c>
+      <c r="I29" s="33">
+        <v>2.91394929589948E-2</v>
+      </c>
+      <c r="J29" s="33">
+        <v>2.8178231405135298E-2</v>
+      </c>
+      <c r="K29" s="33">
+        <v>2.1402739887833099E-2</v>
+      </c>
+      <c r="L29" s="33">
+        <v>-9.0220723067146796E-4</v>
+      </c>
+      <c r="M29" s="34">
+        <v>-3.3533931011495099E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="25"/>
+      <c r="E30" s="19">
+        <v>1</v>
+      </c>
+      <c r="F30" s="33">
+        <v>2.92520780361126E-2</v>
+      </c>
+      <c r="G30" s="33">
+        <v>2.9251901560891101E-2</v>
+      </c>
+      <c r="H30" s="33">
+        <v>2.9250884687475401E-2</v>
+      </c>
+      <c r="I30" s="33">
+        <v>2.9240707335493801E-2</v>
+      </c>
+      <c r="J30" s="33">
+        <v>2.91394929759046E-2</v>
+      </c>
+      <c r="K30" s="33">
+        <v>2.8178231397174101E-2</v>
+      </c>
+      <c r="L30" s="33">
+        <v>2.14027398871049E-2</v>
+      </c>
+      <c r="M30" s="34">
+        <v>-9.0220723076484704E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="19">
+        <v>10</v>
+      </c>
+      <c r="F31" s="35">
+        <v>2.9251921546885402E-2</v>
+      </c>
+      <c r="G31" s="35">
+        <v>2.9252016841230501E-2</v>
+      </c>
+      <c r="H31" s="35">
+        <v>2.9251903939382901E-2</v>
+      </c>
+      <c r="I31" s="35">
+        <v>2.9250884532621702E-2</v>
+      </c>
+      <c r="J31" s="35">
+        <v>2.9240707288861498E-2</v>
+      </c>
+      <c r="K31" s="35">
+        <v>2.91394929791748E-2</v>
+      </c>
+      <c r="L31" s="35">
+        <v>2.8178231397475901E-2</v>
+      </c>
+      <c r="M31" s="36">
+        <v>2.1402739887065599E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="D8:D15"/>
     <mergeCell ref="F6:M6"/>
     <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="F22:M22"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:M15">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:M31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4046,4 +4464,453 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C7B889-1137-4096-8C73-4DD97CF82633}">
+  <dimension ref="G6:N24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="7:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>-0.250042238971738</v>
+      </c>
+      <c r="H7">
+        <v>-0.270699391974703</v>
+      </c>
+      <c r="I7">
+        <v>-0.27473479405621398</v>
+      </c>
+      <c r="J7">
+        <v>-0.27519193921292801</v>
+      </c>
+      <c r="K7">
+        <v>-0.27523829940153</v>
+      </c>
+      <c r="L7">
+        <v>-0.27524294201379101</v>
+      </c>
+      <c r="M7">
+        <v>-0.27524340634108901</v>
+      </c>
+      <c r="N7">
+        <v>-0.27524345277447998</v>
+      </c>
+    </row>
+    <row r="8" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>-0.207555612133067</v>
+      </c>
+      <c r="H8">
+        <v>-0.25004223897174499</v>
+      </c>
+      <c r="I8">
+        <v>-0.27069939197470799</v>
+      </c>
+      <c r="J8">
+        <v>-0.27473479405621498</v>
+      </c>
+      <c r="K8">
+        <v>-0.275191939212931</v>
+      </c>
+      <c r="L8">
+        <v>-0.275238299401524</v>
+      </c>
+      <c r="M8">
+        <v>-0.27524294201378402</v>
+      </c>
+      <c r="N8">
+        <v>-0.27524340634109201</v>
+      </c>
+    </row>
+    <row r="9" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>-0.16019541013112601</v>
+      </c>
+      <c r="H9">
+        <v>-0.20755561213305801</v>
+      </c>
+      <c r="I9">
+        <v>-0.25004223897174899</v>
+      </c>
+      <c r="J9">
+        <v>-0.270699391974704</v>
+      </c>
+      <c r="K9">
+        <v>-0.27473479405621298</v>
+      </c>
+      <c r="L9">
+        <v>-0.27519193921293</v>
+      </c>
+      <c r="M9">
+        <v>-0.275238299401527</v>
+      </c>
+      <c r="N9">
+        <v>-0.27524294201379002</v>
+      </c>
+    </row>
+    <row r="10" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>-0.120831846866127</v>
+      </c>
+      <c r="H10">
+        <v>-0.16019541013113101</v>
+      </c>
+      <c r="I10">
+        <v>-0.207555612133066</v>
+      </c>
+      <c r="J10">
+        <v>-0.25004223897175099</v>
+      </c>
+      <c r="K10">
+        <v>-0.270699391974704</v>
+      </c>
+      <c r="L10">
+        <v>-0.27473479405621298</v>
+      </c>
+      <c r="M10">
+        <v>-0.27519193921293</v>
+      </c>
+      <c r="N10">
+        <v>-0.27523829940153199</v>
+      </c>
+    </row>
+    <row r="11" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>-9.3563138339559704E-2</v>
+      </c>
+      <c r="H11">
+        <v>-0.12083184686607699</v>
+      </c>
+      <c r="I11">
+        <v>-0.16019541013112801</v>
+      </c>
+      <c r="J11">
+        <v>-0.207555612133064</v>
+      </c>
+      <c r="K11">
+        <v>-0.25004223897174699</v>
+      </c>
+      <c r="L11">
+        <v>-0.27069939197470999</v>
+      </c>
+      <c r="M11">
+        <v>-0.27473479405621198</v>
+      </c>
+      <c r="N11">
+        <v>-0.27519193921292801</v>
+      </c>
+    </row>
+    <row r="12" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>-7.8899317859666696E-2</v>
+      </c>
+      <c r="H12">
+        <v>-9.3563138339594898E-2</v>
+      </c>
+      <c r="I12">
+        <v>-0.120831846866082</v>
+      </c>
+      <c r="J12">
+        <v>-0.16019541013112701</v>
+      </c>
+      <c r="K12">
+        <v>-0.20755561213306301</v>
+      </c>
+      <c r="L12">
+        <v>-0.25004223897175099</v>
+      </c>
+      <c r="M12">
+        <v>-0.270699391974696</v>
+      </c>
+      <c r="N12">
+        <v>-0.27473479405621898</v>
+      </c>
+    </row>
+    <row r="13" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>-7.2719524360785007E-2</v>
+      </c>
+      <c r="H13">
+        <v>-7.8899317859697699E-2</v>
+      </c>
+      <c r="I13">
+        <v>-9.3563138339600296E-2</v>
+      </c>
+      <c r="J13">
+        <v>-0.120831846866087</v>
+      </c>
+      <c r="K13">
+        <v>-0.16019541013112801</v>
+      </c>
+      <c r="L13">
+        <v>-0.207555612133064</v>
+      </c>
+      <c r="M13">
+        <v>-0.25004223897175099</v>
+      </c>
+      <c r="N13">
+        <v>-0.27069939197471099</v>
+      </c>
+    </row>
+    <row r="14" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>-7.1350197585333397E-2</v>
+      </c>
+      <c r="H14">
+        <v>-7.2719524361068502E-2</v>
+      </c>
+      <c r="I14">
+        <v>-7.8899317859708898E-2</v>
+      </c>
+      <c r="J14">
+        <v>-9.3563138339603905E-2</v>
+      </c>
+      <c r="K14">
+        <v>-0.120831846866083</v>
+      </c>
+      <c r="L14">
+        <v>-0.16019541013112801</v>
+      </c>
+      <c r="M14">
+        <v>-0.207555612133065</v>
+      </c>
+      <c r="N14">
+        <v>-0.25004223897174999</v>
+      </c>
+    </row>
+    <row r="16" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>2.1402739889654701E-2</v>
+      </c>
+      <c r="H16">
+        <v>-9.0220722981908697E-4</v>
+      </c>
+      <c r="I16">
+        <v>-3.3533931011543297E-2</v>
+      </c>
+      <c r="J16">
+        <v>-6.2054746639113097E-2</v>
+      </c>
+      <c r="K16">
+        <v>-8.2369204706973204E-2</v>
+      </c>
+      <c r="L16">
+        <v>-9.50236247241978E-2</v>
+      </c>
+      <c r="M16">
+        <v>-0.100292654163738</v>
+      </c>
+      <c r="N16">
+        <v>-9.8169384998977802E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>2.81782314135368E-2</v>
+      </c>
+      <c r="H17">
+        <v>2.1402739889977401E-2</v>
+      </c>
+      <c r="I17">
+        <v>-9.0220723079874104E-4</v>
+      </c>
+      <c r="J17">
+        <v>-3.35339310115104E-2</v>
+      </c>
+      <c r="K17">
+        <v>-6.2054746639122901E-2</v>
+      </c>
+      <c r="L17">
+        <v>-8.2369204707228499E-2</v>
+      </c>
+      <c r="M17">
+        <v>-9.5023624721417496E-2</v>
+      </c>
+      <c r="N17">
+        <v>-0.100292654244463</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>2.9139493080244001E-2</v>
+      </c>
+      <c r="H18">
+        <v>2.8178231395317201E-2</v>
+      </c>
+      <c r="I18">
+        <v>2.1402739890088899E-2</v>
+      </c>
+      <c r="J18">
+        <v>-9.0220723006083402E-4</v>
+      </c>
+      <c r="K18">
+        <v>-3.3533931011459801E-2</v>
+      </c>
+      <c r="L18">
+        <v>-6.2054746639043402E-2</v>
+      </c>
+      <c r="M18">
+        <v>-8.2369204708366298E-2</v>
+      </c>
+      <c r="N18">
+        <v>-9.5023624731304698E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>2.92407080653104E-2</v>
+      </c>
+      <c r="H19">
+        <v>2.9139493040169301E-2</v>
+      </c>
+      <c r="I19">
+        <v>2.8178231401068898E-2</v>
+      </c>
+      <c r="J19">
+        <v>2.1402739886567799E-2</v>
+      </c>
+      <c r="K19">
+        <v>-9.0220723057021801E-4</v>
+      </c>
+      <c r="L19">
+        <v>-3.3533931011424399E-2</v>
+      </c>
+      <c r="M19">
+        <v>-6.20547466388588E-2</v>
+      </c>
+      <c r="N19">
+        <v>-8.2369204706551305E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>2.9250891418238799E-2</v>
+      </c>
+      <c r="H20">
+        <v>2.92407082069207E-2</v>
+      </c>
+      <c r="I20">
+        <v>2.91394930026878E-2</v>
+      </c>
+      <c r="J20">
+        <v>2.8178231414341101E-2</v>
+      </c>
+      <c r="K20">
+        <v>2.1402739886498101E-2</v>
+      </c>
+      <c r="L20">
+        <v>-9.0220723067945495E-4</v>
+      </c>
+      <c r="M20">
+        <v>-3.3533931011455603E-2</v>
+      </c>
+      <c r="N20">
+        <v>-6.2054746638996197E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>2.9251915684090701E-2</v>
+      </c>
+      <c r="H21">
+        <v>2.9250884673342099E-2</v>
+      </c>
+      <c r="I21">
+        <v>2.9240707908962701E-2</v>
+      </c>
+      <c r="J21">
+        <v>2.91394929589948E-2</v>
+      </c>
+      <c r="K21">
+        <v>2.8178231405135298E-2</v>
+      </c>
+      <c r="L21">
+        <v>2.1402739887833099E-2</v>
+      </c>
+      <c r="M21">
+        <v>-9.0220723067146796E-4</v>
+      </c>
+      <c r="N21">
+        <v>-3.3533931011495099E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>2.92520780361126E-2</v>
+      </c>
+      <c r="H22">
+        <v>2.9251901560891101E-2</v>
+      </c>
+      <c r="I22">
+        <v>2.9250884687475401E-2</v>
+      </c>
+      <c r="J22">
+        <v>2.9240707335493801E-2</v>
+      </c>
+      <c r="K22">
+        <v>2.91394929759046E-2</v>
+      </c>
+      <c r="L22">
+        <v>2.8178231397174101E-2</v>
+      </c>
+      <c r="M22">
+        <v>2.14027398871049E-2</v>
+      </c>
+      <c r="N22">
+        <v>-9.0220723076484704E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>2.9251921546885402E-2</v>
+      </c>
+      <c r="H23">
+        <v>2.9252016841230501E-2</v>
+      </c>
+      <c r="I23">
+        <v>2.9251903939382901E-2</v>
+      </c>
+      <c r="J23">
+        <v>2.9250884532621702E-2</v>
+      </c>
+      <c r="K23">
+        <v>2.9240707288861498E-2</v>
+      </c>
+      <c r="L23">
+        <v>2.91394929791748E-2</v>
+      </c>
+      <c r="M23">
+        <v>2.8178231397475901E-2</v>
+      </c>
+      <c r="N23">
+        <v>2.1402739887065599E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <conditionalFormatting sqref="G7:N23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Model/KalmanTesting/TaskTracking.xlsx
+++ b/Model/KalmanTesting/TaskTracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TylerFiles\GitHubRepos\BatteryModel\Model\KalmanTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C0A955-206E-4155-BEF1-B54931FE7A42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A78849-80B4-4D06-95FC-E7395691EF42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{DBB2BB76-CD99-4D2C-BFC4-D2EA9F053BD7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{DBB2BB76-CD99-4D2C-BFC4-D2EA9F053BD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="46">
   <si>
     <t>Plant</t>
   </si>
@@ -161,6 +161,12 @@
   <si>
     <t>Covariance</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Complete but not great</t>
+  </si>
 </sst>
 </file>
 
@@ -189,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +217,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,14 +380,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -404,10 +420,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4502EBA-70C7-47FF-B549-1524F638E2AB}">
   <dimension ref="C3:O52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,11 +939,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
@@ -938,11 +953,11 @@
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
@@ -954,7 +969,7 @@
       </c>
     </row>
     <row r="4" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
@@ -966,8 +981,10 @@
       <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="J4" s="22" t="s">
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="27" t="s">
         <v>15</v>
       </c>
       <c r="L4" t="s">
@@ -979,10 +996,12 @@
       <c r="N4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="O4" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="22"/>
+      <c r="C5" s="27"/>
       <c r="E5" t="s">
         <v>7</v>
       </c>
@@ -993,7 +1012,7 @@
         <v>22</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="J5" s="22"/>
+      <c r="J5" s="27"/>
       <c r="L5" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1025,7 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="22"/>
+      <c r="C6" s="27"/>
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -1017,7 +1036,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="J6" s="22"/>
+      <c r="J6" s="27"/>
       <c r="L6" t="s">
         <v>8</v>
       </c>
@@ -1030,28 +1049,32 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="22"/>
+      <c r="C7" s="27"/>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="3"/>
-      <c r="J7" s="22"/>
+      <c r="J7" s="27"/>
       <c r="L7" t="s">
         <v>9</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="22"/>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="25" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
@@ -1060,10 +1083,12 @@
       <c r="F8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="H8" s="3"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="21" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="25" t="s">
         <v>14</v>
       </c>
       <c r="L8" t="s">
@@ -1072,78 +1097,92 @@
       <c r="M8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="22"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="25"/>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="H9" s="3"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="21"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="25"/>
       <c r="L9" t="s">
         <v>11</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="25"/>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="H10" s="3"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="25"/>
       <c r="L10" t="s">
         <v>12</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="3"/>
+      <c r="N10" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="22"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="H11" s="3"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="21"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="25"/>
       <c r="L11" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="3"/>
+      <c r="N11" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="22"/>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
@@ -1152,10 +1191,12 @@
       <c r="F12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="3"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="21" t="s">
+      <c r="J12" s="27"/>
+      <c r="K12" s="25" t="s">
         <v>6</v>
       </c>
       <c r="L12" t="s">
@@ -1164,77 +1205,91 @@
       <c r="M12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="3"/>
+      <c r="N12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="25"/>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="H13" s="3"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="21"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="25"/>
       <c r="L13" t="s">
         <v>11</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="22"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="25"/>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="H14" s="3"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="21"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="25"/>
       <c r="L14" t="s">
         <v>12</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
+    <row r="15" spans="3:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="27"/>
+      <c r="D15" s="25"/>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="37" t="s">
+        <v>45</v>
+      </c>
       <c r="H15" s="3"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="21"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="25"/>
       <c r="L15" t="s">
         <v>13</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="3"/>
+      <c r="N15" s="37" t="s">
+        <v>45</v>
+      </c>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
@@ -1247,7 +1302,7 @@
         <v>22</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="27" t="s">
         <v>17</v>
       </c>
       <c r="L16" t="s">
@@ -1262,7 +1317,7 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="22"/>
+      <c r="C17" s="27"/>
       <c r="E17" t="s">
         <v>16</v>
       </c>
@@ -1273,7 +1328,7 @@
         <v>22</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="J17" s="22"/>
+      <c r="J17" s="27"/>
       <c r="L17" t="s">
         <v>16</v>
       </c>
@@ -1286,28 +1341,32 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="22"/>
+      <c r="C18" s="27"/>
       <c r="E18" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="H18" s="3"/>
-      <c r="J18" s="22"/>
+      <c r="J18" s="27"/>
       <c r="L18" t="s">
         <v>6</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="3"/>
+      <c r="N18" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="22"/>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="25" t="s">
         <v>14</v>
       </c>
       <c r="E19" t="s">
@@ -1318,8 +1377,8 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="21" t="s">
+      <c r="J19" s="27"/>
+      <c r="K19" s="25" t="s">
         <v>14</v>
       </c>
       <c r="L19" t="s">
@@ -1332,8 +1391,8 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="22"/>
-      <c r="D20" s="21"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="25"/>
       <c r="E20" t="s">
         <v>11</v>
       </c>
@@ -1342,8 +1401,8 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="21"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="25"/>
       <c r="L20" t="s">
         <v>11</v>
       </c>
@@ -1354,8 +1413,8 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="22"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="25"/>
       <c r="E21" t="s">
         <v>12</v>
       </c>
@@ -1364,8 +1423,8 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="21"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="25"/>
       <c r="L21" t="s">
         <v>12</v>
       </c>
@@ -1376,16 +1435,16 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="22"/>
-      <c r="D22" s="21"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="25"/>
       <c r="E22" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="21"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="25"/>
       <c r="L22" t="s">
         <v>13</v>
       </c>
@@ -1394,8 +1453,8 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="22"/>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E23" t="s">
@@ -1406,8 +1465,8 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="21" t="s">
+      <c r="J23" s="27"/>
+      <c r="K23" s="25" t="s">
         <v>6</v>
       </c>
       <c r="L23" t="s">
@@ -1420,8 +1479,8 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="22"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="25"/>
       <c r="E24" t="s">
         <v>11</v>
       </c>
@@ -1430,8 +1489,8 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="21"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="25"/>
       <c r="L24" t="s">
         <v>11</v>
       </c>
@@ -1442,8 +1501,8 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="22"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="25"/>
       <c r="E25" t="s">
         <v>12</v>
       </c>
@@ -1452,8 +1511,8 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="21"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="25"/>
       <c r="L25" t="s">
         <v>12</v>
       </c>
@@ -1464,8 +1523,8 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="22"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="25"/>
       <c r="E26" t="s">
         <v>13</v>
       </c>
@@ -1474,8 +1533,8 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="21"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="25"/>
       <c r="L26" t="s">
         <v>13</v>
       </c>
@@ -1486,11 +1545,11 @@
       <c r="O26" s="3"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1500,11 +1559,11 @@
       <c r="H29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
       <c r="M29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1516,7 +1575,7 @@
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
@@ -1528,8 +1587,10 @@
       <c r="G30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="J30" s="22" t="s">
+      <c r="H30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="27" t="s">
         <v>15</v>
       </c>
       <c r="L30" t="s">
@@ -1541,10 +1602,12 @@
       <c r="N30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O30" s="3"/>
+      <c r="O30" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="22"/>
+      <c r="C31" s="27"/>
       <c r="E31" t="s">
         <v>7</v>
       </c>
@@ -1555,7 +1618,7 @@
         <v>22</v>
       </c>
       <c r="H31" s="3"/>
-      <c r="J31" s="22"/>
+      <c r="J31" s="27"/>
       <c r="L31" t="s">
         <v>7</v>
       </c>
@@ -1566,7 +1629,7 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="22"/>
+      <c r="C32" s="27"/>
       <c r="E32" t="s">
         <v>8</v>
       </c>
@@ -1577,7 +1640,7 @@
         <v>22</v>
       </c>
       <c r="H32" s="3"/>
-      <c r="J32" s="22"/>
+      <c r="J32" s="27"/>
       <c r="L32" t="s">
         <v>8</v>
       </c>
@@ -1588,7 +1651,7 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C33" s="22"/>
+      <c r="C33" s="27"/>
       <c r="E33" t="s">
         <v>9</v>
       </c>
@@ -1597,7 +1660,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="J33" s="22"/>
+      <c r="J33" s="27"/>
       <c r="L33" t="s">
         <v>9</v>
       </c>
@@ -1606,8 +1669,8 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C34" s="22"/>
-      <c r="D34" s="21" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="25" t="s">
         <v>14</v>
       </c>
       <c r="E34" t="s">
@@ -1618,8 +1681,8 @@
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="21" t="s">
+      <c r="J34" s="27"/>
+      <c r="K34" s="25" t="s">
         <v>14</v>
       </c>
       <c r="L34" t="s">
@@ -1630,8 +1693,8 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="22"/>
-      <c r="D35" s="21"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="25"/>
       <c r="E35" t="s">
         <v>11</v>
       </c>
@@ -1640,8 +1703,8 @@
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="21"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="25"/>
       <c r="L35" t="s">
         <v>11</v>
       </c>
@@ -1650,8 +1713,8 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="22"/>
-      <c r="D36" s="21"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="25"/>
       <c r="E36" t="s">
         <v>12</v>
       </c>
@@ -1660,8 +1723,8 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="21"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="25"/>
       <c r="L36" t="s">
         <v>12</v>
       </c>
@@ -1670,8 +1733,8 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C37" s="22"/>
-      <c r="D37" s="21"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="25"/>
       <c r="E37" t="s">
         <v>13</v>
       </c>
@@ -1680,8 +1743,8 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="21"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="25"/>
       <c r="L37" t="s">
         <v>13</v>
       </c>
@@ -1690,8 +1753,8 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C38" s="22"/>
-      <c r="D38" s="21" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E38" t="s">
@@ -1700,8 +1763,8 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="21" t="s">
+      <c r="J38" s="27"/>
+      <c r="K38" s="25" t="s">
         <v>6</v>
       </c>
       <c r="L38" t="s">
@@ -1712,16 +1775,16 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="22"/>
-      <c r="D39" s="21"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="25"/>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="21"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="25"/>
       <c r="L39" t="s">
         <v>11</v>
       </c>
@@ -1730,16 +1793,16 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" s="22"/>
-      <c r="D40" s="21"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="25"/>
       <c r="E40" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="21"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="25"/>
       <c r="L40" t="s">
         <v>12</v>
       </c>
@@ -1748,16 +1811,16 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C41" s="22"/>
-      <c r="D41" s="21"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="25"/>
       <c r="E41" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="21"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="25"/>
       <c r="L41" t="s">
         <v>13</v>
       </c>
@@ -1766,7 +1829,7 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E42" t="s">
@@ -1777,7 +1840,7 @@
         <v>22</v>
       </c>
       <c r="H42" s="3"/>
-      <c r="J42" s="22" t="s">
+      <c r="J42" s="27" t="s">
         <v>17</v>
       </c>
       <c r="L42" t="s">
@@ -1790,7 +1853,7 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="22"/>
+      <c r="C43" s="27"/>
       <c r="E43" t="s">
         <v>16</v>
       </c>
@@ -1799,7 +1862,7 @@
         <v>22</v>
       </c>
       <c r="H43" s="3"/>
-      <c r="J43" s="22"/>
+      <c r="J43" s="27"/>
       <c r="L43" t="s">
         <v>16</v>
       </c>
@@ -1810,14 +1873,14 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="22"/>
+      <c r="C44" s="27"/>
       <c r="E44" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="J44" s="22"/>
+      <c r="J44" s="27"/>
       <c r="L44" t="s">
         <v>6</v>
       </c>
@@ -1826,8 +1889,8 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="22"/>
-      <c r="D45" s="21" t="s">
+      <c r="C45" s="27"/>
+      <c r="D45" s="25" t="s">
         <v>14</v>
       </c>
       <c r="E45" t="s">
@@ -1836,8 +1899,8 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="21" t="s">
+      <c r="J45" s="27"/>
+      <c r="K45" s="25" t="s">
         <v>14</v>
       </c>
       <c r="L45" t="s">
@@ -1848,16 +1911,16 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="22"/>
-      <c r="D46" s="21"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="25"/>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="21"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="25"/>
       <c r="L46" t="s">
         <v>11</v>
       </c>
@@ -1866,16 +1929,16 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="22"/>
-      <c r="D47" s="21"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="25"/>
       <c r="E47" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="21"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="25"/>
       <c r="L47" t="s">
         <v>12</v>
       </c>
@@ -1884,16 +1947,16 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="22"/>
-      <c r="D48" s="21"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="25"/>
       <c r="E48" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="21"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="25"/>
       <c r="L48" t="s">
         <v>13</v>
       </c>
@@ -1902,8 +1965,8 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C49" s="22"/>
-      <c r="D49" s="21" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E49" t="s">
@@ -1912,8 +1975,8 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="21" t="s">
+      <c r="J49" s="27"/>
+      <c r="K49" s="25" t="s">
         <v>6</v>
       </c>
       <c r="L49" t="s">
@@ -1924,16 +1987,16 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="22"/>
-      <c r="D50" s="21"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="25"/>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="21"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="25"/>
       <c r="L50" t="s">
         <v>11</v>
       </c>
@@ -1942,16 +2005,16 @@
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C51" s="22"/>
-      <c r="D51" s="21"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="25"/>
       <c r="E51" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="21"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="25"/>
       <c r="L51" t="s">
         <v>12</v>
       </c>
@@ -1960,16 +2023,16 @@
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C52" s="22"/>
-      <c r="D52" s="21"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="25"/>
       <c r="E52" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="21"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="25"/>
       <c r="L52" t="s">
         <v>13</v>
       </c>
@@ -1979,19 +2042,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:J15"/>
-    <mergeCell ref="J16:J26"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C16:C26"/>
-    <mergeCell ref="C4:C15"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="K34:K37"/>
     <mergeCell ref="D49:D52"/>
     <mergeCell ref="J30:J41"/>
     <mergeCell ref="J42:J52"/>
@@ -2007,6 +2057,19 @@
     <mergeCell ref="D45:D48"/>
     <mergeCell ref="D38:D41"/>
     <mergeCell ref="K49:K52"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:J15"/>
+    <mergeCell ref="J16:J26"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C16:C26"/>
+    <mergeCell ref="C4:C15"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="K34:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3840,24 +3903,24 @@
     </row>
     <row r="5" spans="2:13" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="24" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="19">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -3887,7 +3950,7 @@
       <c r="B8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="19">
@@ -3919,7 +3982,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="25"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -3949,7 +4012,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="25"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="19">
         <v>1E-4</v>
       </c>
@@ -3979,7 +4042,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="25"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="19">
         <v>1E-3</v>
       </c>
@@ -4009,7 +4072,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="25"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="19">
         <v>0.01</v>
       </c>
@@ -4039,7 +4102,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="25"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="19">
         <v>0.1</v>
       </c>
@@ -4069,7 +4132,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="25"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="19">
         <v>1</v>
       </c>
@@ -4102,7 +4165,7 @@
       <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="19">
         <v>10</v>
       </c>
@@ -4135,24 +4198,24 @@
     <row r="20" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="24" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="19">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -4182,214 +4245,214 @@
       <c r="B24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="19">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="21">
         <v>2.1402739889654701E-2</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="21">
         <v>-9.0220722981908697E-4</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="21">
         <v>-3.3533931011543297E-2</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="21">
         <v>-6.2054746639113097E-2</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="21">
         <v>-8.2369204706973204E-2</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="21">
         <v>-9.50236247241978E-2</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="21">
         <v>-0.100292654163738</v>
       </c>
-      <c r="M24" s="34">
+      <c r="M24" s="22">
         <v>-9.8169384998977802E-2</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="25"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="21">
         <v>2.81782314135368E-2</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="21">
         <v>2.1402739889977401E-2</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="21">
         <v>-9.0220723079874104E-4</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="21">
         <v>-3.35339310115104E-2</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="21">
         <v>-6.2054746639122901E-2</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="21">
         <v>-8.2369204707228499E-2</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="21">
         <v>-9.5023624721417496E-2</v>
       </c>
-      <c r="M25" s="34">
+      <c r="M25" s="22">
         <v>-0.100292654244463</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="25"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="19">
         <v>1E-4</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="21">
         <v>2.9139493080244001E-2</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="21">
         <v>2.8178231395317201E-2</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="21">
         <v>2.1402739890088899E-2</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="21">
         <v>-9.0220723006083402E-4</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="21">
         <v>-3.3533931011459801E-2</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="21">
         <v>-6.2054746639043402E-2</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="21">
         <v>-8.2369204708366298E-2</v>
       </c>
-      <c r="M26" s="34">
+      <c r="M26" s="22">
         <v>-9.5023624731304698E-2</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="25"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="21">
         <v>2.92407080653104E-2</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="21">
         <v>2.9139493040169301E-2</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="21">
         <v>2.8178231401068898E-2</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="21">
         <v>2.1402739886567799E-2</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="21">
         <v>-9.0220723057021801E-4</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="21">
         <v>-3.3533931011424399E-2</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="21">
         <v>-6.20547466388588E-2</v>
       </c>
-      <c r="M27" s="34">
+      <c r="M27" s="22">
         <v>-8.2369204706551305E-2</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="25"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="19">
         <v>0.01</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="21">
         <v>2.9250891418238799E-2</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="21">
         <v>2.92407082069207E-2</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="21">
         <v>2.91394930026878E-2</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="21">
         <v>2.8178231414341101E-2</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="21">
         <v>2.1402739886498101E-2</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="21">
         <v>-9.0220723067945495E-4</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="21">
         <v>-3.3533931011455603E-2</v>
       </c>
-      <c r="M28" s="34">
+      <c r="M28" s="22">
         <v>-6.2054746638996197E-2</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="25"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="19">
         <v>0.1</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="21">
         <v>2.9251915684090701E-2</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="21">
         <v>2.9250884673342099E-2</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="21">
         <v>2.9240707908962701E-2</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="21">
         <v>2.91394929589948E-2</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="21">
         <v>2.8178231405135298E-2</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="21">
         <v>2.1402739887833099E-2</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="21">
         <v>-9.0220723067146796E-4</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29" s="22">
         <v>-3.3533931011495099E-2</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="25"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="19">
         <v>1</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="21">
         <v>2.92520780361126E-2</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="21">
         <v>2.9251901560891101E-2</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="21">
         <v>2.9250884687475401E-2</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="21">
         <v>2.9240707335493801E-2</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="21">
         <v>2.91394929759046E-2</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="21">
         <v>2.8178231397174101E-2</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="21">
         <v>2.14027398871049E-2</v>
       </c>
-      <c r="M30" s="34">
+      <c r="M30" s="22">
         <v>-9.0220723076484704E-4</v>
       </c>
     </row>
@@ -4397,32 +4460,32 @@
       <c r="B31" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="19">
         <v>10</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="23">
         <v>2.9251921546885402E-2</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="23">
         <v>2.9252016841230501E-2</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="23">
         <v>2.9251903939382901E-2</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="23">
         <v>2.9250884532621702E-2</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="23">
         <v>2.9240707288861498E-2</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="23">
         <v>2.91394929791748E-2</v>
       </c>
-      <c r="L31" s="35">
+      <c r="L31" s="23">
         <v>2.8178231397475901E-2</v>
       </c>
-      <c r="M31" s="36">
+      <c r="M31" s="24">
         <v>2.1402739887065599E-2</v>
       </c>
     </row>
@@ -4470,7 +4533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C7B889-1137-4096-8C73-4DD97CF82633}">
   <dimension ref="G6:N24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
